--- a/src/render.xlsx
+++ b/src/render.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="28680" yWindow="-120"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -107,43 +107,43 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -524,16 +524,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
-    <col customWidth="1" max="3" min="3" width="44.140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.7109375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="31.7109375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="18.42578125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="14.7109375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="9.42578125"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="26.140625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" width="16.140625"/>
+    <col width="17.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="44.140625" customWidth="1" min="3" max="3"/>
+    <col width="15.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="31.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="18.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="14.7109375" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="9.42578125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="26.140625" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -543,7 +543,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="60" r="6">
+    <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Bil</t>
@@ -604,7 +604,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="59.25" r="7">
+    <row r="7" ht="59.25" customHeight="1">
       <c r="A7" s="8" t="inlineStr">
         <is>
           <t>1</t>
@@ -1014,7 +1014,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:K2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" scale="74"/>
 </worksheet>
 </file>
--- a/src/render.xlsx
+++ b/src/render.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="28680" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -107,43 +107,43 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -524,16 +524,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="44.140625" customWidth="1" min="3" max="3"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="31.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="18.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="14.7109375" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="9.42578125" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="26.140625" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="16.140625" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
+    <col customWidth="1" max="3" min="3" width="44.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.7109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="31.7109375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="18.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="14.7109375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="9.42578125"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="26.140625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" width="16.140625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -543,7 +543,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
+    <row customHeight="1" ht="60" r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Bil</t>
@@ -604,7 +604,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="59.25" customHeight="1">
+    <row customHeight="1" ht="59.25" r="7">
       <c r="A7" s="8" t="inlineStr">
         <is>
           <t>1</t>
@@ -1014,7 +1014,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:K2"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="landscape" scale="74"/>
 </worksheet>
 </file>